--- a/data/trans_camb/P59A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>15.50237629820454</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.712381801903418</v>
+        <v>6.712381801903415</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.39071803259203</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.375796363876331</v>
+        <v>-3.650543875397551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.245679882033359</v>
+        <v>-4.446703616182512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.333736365967236</v>
+        <v>-7.123541470121896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.565298758463012</v>
+        <v>1.680280235086351</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.826372166057403</v>
+        <v>6.180214876486357</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.244927473487861</v>
+        <v>-1.343040400534414</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.970037624556378</v>
+        <v>2.699688988302251</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.716279646385955</v>
+        <v>4.267746166533593</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.413748670382647</v>
+        <v>-1.882441359192439</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.51355693266077</v>
+        <v>15.7967319910876</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.64979476148263</v>
+        <v>17.43634872661758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.16304293255763</v>
+        <v>12.11471306930751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.94170080358295</v>
+        <v>22.44262183346191</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>24.76117584176459</v>
+        <v>24.67528498980285</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.29197118957697</v>
+        <v>15.13272316038357</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.23071158692342</v>
+        <v>16.44952793129619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.66178040955984</v>
+        <v>19.08898742110177</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.99253372916654</v>
+        <v>11.20692650128131</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>1.416970547543148</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6135347984207636</v>
+        <v>0.6135347984207633</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.7233063526647375</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2132009094949121</v>
+        <v>-0.218873414315187</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1477664246542623</v>
+        <v>-0.2378142418992449</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.381506422281683</v>
+        <v>-0.3751735022011797</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05524487615648817</v>
+        <v>0.09026006738239711</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3083852021401657</v>
+        <v>0.3725893283266644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1768091164576831</v>
+        <v>-0.09901577092760074</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1100898162405976</v>
+        <v>0.1589874987637519</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1984424377386556</v>
+        <v>0.2636369596186314</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07968554494767541</v>
+        <v>-0.1175583131107351</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.524332342623305</v>
+        <v>1.490162530540289</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.966612177006193</v>
+        <v>1.633415525742493</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.10846688871019</v>
+        <v>1.17472601243837</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.1670857101551</v>
+        <v>3.297782076591643</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.858965050683376</v>
+        <v>3.545313022551561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.084312910903629</v>
+        <v>2.31374513648482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.657021364046525</v>
+        <v>1.701730435759701</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.937392983146893</v>
+        <v>1.993325214545384</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.151794478918016</v>
+        <v>1.200776457318666</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.103506790666466</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.566668960398452</v>
+        <v>8.566668960398449</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.894275483045741</v>
+        <v>-3.083371503686582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.393749497197953</v>
+        <v>-7.461104615823749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.072988602806843</v>
+        <v>-0.7945446883292727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.079899843960856</v>
+        <v>-2.961733290240688</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.099237233661556</v>
+        <v>-7.320674525824876</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.857401070121663</v>
+        <v>2.278848835862296</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.095347000086887</v>
+        <v>-1.112971692995232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.402544287523797</v>
+        <v>-5.582472853114603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.33052963931811</v>
+        <v>3.600468776907515</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.50581965810242</v>
+        <v>11.00696651283411</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.319982270838718</v>
+        <v>5.778782759484394</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.10804981680623</v>
+        <v>15.72622908737078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.65575271972051</v>
+        <v>10.27666810256517</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.091004147112635</v>
+        <v>4.021199395134071</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.36673309529212</v>
+        <v>15.8725552530199</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.672830182884709</v>
+        <v>8.471527553698795</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.207701809089484</v>
+        <v>3.488063586877905</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.95501040011778</v>
+        <v>13.91887348542826</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1035565900866102</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8039234859659378</v>
+        <v>0.8039234859659374</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2589176061361123</v>
+        <v>-0.2279977150592206</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4712718568746743</v>
+        <v>-0.5111952261906606</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09084907900170697</v>
+        <v>-0.06654668265171798</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2366021225603331</v>
+        <v>-0.2373981043168079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5970604407301343</v>
+        <v>-0.576776734590467</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1786839106999539</v>
+        <v>0.1324648218304325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08739939023498906</v>
+        <v>-0.09388662711659693</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4277635197224051</v>
+        <v>-0.4318020337557468</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2506791903918555</v>
+        <v>0.2565104969320725</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.498486861173771</v>
+        <v>1.348690891705798</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8192521393409767</v>
+        <v>0.7322810323676937</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.052335430294901</v>
+        <v>1.957106014762601</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.538628141926258</v>
+        <v>1.462320607779066</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6304467073312506</v>
+        <v>0.6454485418119739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.497173116703825</v>
+        <v>2.270904652898861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.027523728784397</v>
+        <v>1.011670144442762</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4075848364302114</v>
+        <v>0.4274597247094418</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.661028187757326</v>
+        <v>1.708973441066064</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.1140840381730693</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.279876254905685</v>
+        <v>4.279876254905687</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.953336882315798</v>
@@ -1092,7 +1092,7 @@
         <v>-0.5353047990359585</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.27327636629631</v>
+        <v>1.273276366296307</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.07783441857539</v>
+        <v>-13.76831223267939</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.736812173817677</v>
+        <v>-10.6065333790074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.61855809277924</v>
+        <v>-11.68861317135045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.642064525147573</v>
+        <v>-6.901185718645977</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.448267366850036</v>
+        <v>-7.083453037436167</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.31334885411608</v>
+        <v>-2.376696975585559</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.927028381114974</v>
+        <v>-7.753619387054463</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.18162929909622</v>
+        <v>-6.483370783996353</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.42047759941502</v>
+        <v>-4.741059446881075</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.553083137403918</v>
+        <v>3.92280469132661</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.00233812002322</v>
+        <v>7.815849933416088</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.915319791143906</v>
+        <v>6.621511401099172</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.380583995294302</v>
+        <v>7.672204291054554</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.457606647518463</v>
+        <v>6.746861613494108</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.6707589584083</v>
+        <v>10.77904723511984</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.488683840806982</v>
+        <v>3.756457834524433</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.024604437689527</v>
+        <v>4.935967037194675</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.742761569016806</v>
+        <v>6.026762736056495</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.01231415995934042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.461967174839473</v>
+        <v>0.4619671748394733</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1606914957228643</v>
@@ -1197,7 +1197,7 @@
         <v>-0.04403691426884587</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1047462348256879</v>
+        <v>0.1047462348256877</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6290731058560524</v>
+        <v>-0.620449585330497</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5019249882076985</v>
+        <v>-0.5043963157661722</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5299180380165883</v>
+        <v>-0.5625801931492165</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5851747411196671</v>
+        <v>-0.5927161136968057</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.509982481292753</v>
+        <v>-0.5591575372876707</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1846576266211793</v>
+        <v>-0.2017209086011202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5177938339551724</v>
+        <v>-0.5200999083920018</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3893451637031536</v>
+        <v>-0.4430529168608282</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2967088390088412</v>
+        <v>-0.2939182296656302</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4455983581123918</v>
+        <v>0.4095003840144292</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9297211595766998</v>
+        <v>0.7096936852248146</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7230286162915625</v>
+        <v>0.6261474644215799</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.326862245877944</v>
+        <v>1.314898103439607</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.106682397153345</v>
+        <v>1.141340124478716</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.034389063715514</v>
+        <v>1.806565841501619</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3971446034181297</v>
+        <v>0.4312504665571454</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5724557940164771</v>
+        <v>0.561924994983154</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7292498636654791</v>
+        <v>0.6840549564393865</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>12.90727533952611</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.047940544608849</v>
+        <v>4.047940544608847</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.581122656944498</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.590114337534065</v>
+        <v>-3.335438817436604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.52218855000543</v>
+        <v>10.13134742476029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7094325486333283</v>
+        <v>-0.1160179873639105</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.539317806907453</v>
+        <v>-3.488436033291045</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.912642711623454</v>
+        <v>4.693671087132677</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.707901062183658</v>
+        <v>-3.495195621191786</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9713343043594845</v>
+        <v>-1.067103436844004</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.427336001413181</v>
+        <v>10.03971951718919</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.711894726858272</v>
+        <v>0.944879086962285</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.42955718735775</v>
+        <v>16.187116023879</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>30.49760913047023</v>
+        <v>30.49534892115596</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.34804440289541</v>
+        <v>21.23607488651146</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.63229739775711</v>
+        <v>13.27967794514418</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>22.10648396246322</v>
+        <v>21.38281484872245</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.86377983986481</v>
+        <v>11.83702613503418</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.79784116086969</v>
+        <v>11.23265626761456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>23.20201879801531</v>
+        <v>22.9784408881472</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.30183055134596</v>
+        <v>13.29389341532681</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.9616823772218136</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3015999103909197</v>
+        <v>0.3015999103909194</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3904590319565731</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1546653341530543</v>
+        <v>-0.1861575049191695</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4937787012920462</v>
+        <v>0.4059966957506777</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0611239343173406</v>
+        <v>-0.04933210359914531</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2192604984994417</v>
+        <v>-0.2059467921818552</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2724085274299659</v>
+        <v>0.249811857214466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2212674383701832</v>
+        <v>-0.2213882983278825</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06244477870361537</v>
+        <v>-0.07860123229022381</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5359038132332636</v>
+        <v>0.5775626141597586</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03887047295057839</v>
+        <v>0.04383409502711852</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.386567785576654</v>
+        <v>1.375297812610698</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.790224709206947</v>
+        <v>2.642260870411282</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.927498662325013</v>
+        <v>1.826579965229099</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.33746449555725</v>
+        <v>1.352226081201382</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.339612311130929</v>
+        <v>2.2705733231926</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.286403796116999</v>
+        <v>1.23641764503801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.049343248452135</v>
+        <v>0.9675356677371444</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.052220055813043</v>
+        <v>1.993761424614924</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.191629943743174</v>
+        <v>1.189626785157416</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-6.007187069156599</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-7.824614969308858</v>
+        <v>-7.824614969308855</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.574179287694474</v>
@@ -1511,7 +1511,7 @@
         <v>-6.884324734156043</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.488101182233704</v>
+        <v>-3.488101182233705</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.562342312928922</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-15.40335844959126</v>
+        <v>-14.67533003748894</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.90766511477796</v>
+        <v>-15.44813812413088</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-18.02848952762998</v>
+        <v>-17.7578206221177</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.84760305985001</v>
+        <v>-9.468875037852046</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-17.32664581073125</v>
+        <v>-18.7046616559189</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.74882551380623</v>
+        <v>-13.08764390778398</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-10.57942730072152</v>
+        <v>-9.578976434727577</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-14.09279826611088</v>
+        <v>-13.48544212403452</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.85448237167226</v>
+        <v>-12.10411067930853</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.197873651235707</v>
+        <v>8.084084754219582</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.262641365717204</v>
+        <v>4.597943755900296</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.113318408765802</v>
+        <v>0.8742736122640936</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.22993172237732</v>
+        <v>12.49246046530823</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.202099616676081</v>
+        <v>1.922527711734918</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.12023304230735</v>
+        <v>5.82507579009462</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.2140966469563</v>
+        <v>6.162030330875852</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7065615165971366</v>
+        <v>1.015065384101571</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3925363929768922</v>
+        <v>0.5432860478382178</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3641344038224763</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.47430044614704</v>
+        <v>-0.4743004461470399</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1064535460637667</v>
@@ -1616,7 +1616,7 @@
         <v>-0.4655510245460976</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2358821150682441</v>
+        <v>-0.2358821150682442</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.09947177597792654</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7172042889802882</v>
+        <v>-0.7006769253607252</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7525751285297175</v>
+        <v>-0.7311047048414624</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7960625116989504</v>
+        <v>-0.7957366731501644</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4998066651752532</v>
+        <v>-0.4922002651426208</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8383778313827845</v>
+        <v>-0.8652700407864252</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6379052157095342</v>
+        <v>-0.6035459190459013</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5297886473820875</v>
+        <v>-0.487328259207574</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6988767226198535</v>
+        <v>-0.7009251022342148</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6454980350850015</v>
+        <v>-0.6064476626686053</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5539057785271344</v>
+        <v>0.7343434402471222</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4241445125873716</v>
+        <v>0.5074397740484943</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1685254369043395</v>
+        <v>0.1720645025706891</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.338925310684547</v>
+        <v>1.457516811311569</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.531526155084951</v>
+        <v>0.3890583345012908</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6073320969264081</v>
+        <v>0.8457821198796499</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5284800485676285</v>
+        <v>0.5579780197102915</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09229181410428013</v>
+        <v>0.1289202602808444</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.05501709151528121</v>
+        <v>0.06819863935153989</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-14.85524312626796</v>
+        <v>-15.4398311498216</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.09793751939616</v>
+        <v>-18.28020790250981</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-15.20608394125153</v>
+        <v>-14.31455076307985</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-15.45747169563995</v>
+        <v>-14.40154060349365</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.29011713009996</v>
+        <v>-14.66929716091333</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.373530986004378</v>
+        <v>-8.347566101900531</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-11.99475351720027</v>
+        <v>-12.57135416154789</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-14.41747622535013</v>
+        <v>-14.3971513073232</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.182885803766505</v>
+        <v>-8.600898918266024</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.330946671349332</v>
+        <v>6.009299939051846</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.470092719447703</v>
+        <v>0.217546010480862</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.987869728672843</v>
+        <v>4.955218202377396</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.5796934294571821</v>
+        <v>0.8907630373093858</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.2382605337769002</v>
+        <v>0.04749431862678862</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.949636396212911</v>
+        <v>8.032484826259086</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.3964525393221196</v>
+        <v>1.105672904103423</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.885185190260129</v>
+        <v>-2.498426578442973</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.213751810056351</v>
+        <v>3.954247297241059</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6912111516439519</v>
+        <v>-0.7086381252673249</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8294730038004425</v>
+        <v>-0.8153226736030074</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6278514871639382</v>
+        <v>-0.6104151835131977</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.8453028890720389</v>
+        <v>-0.8747321346075853</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8307718526773329</v>
+        <v>-0.838604673519814</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4159728361049188</v>
+        <v>-0.4931697475332397</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6689020180144518</v>
+        <v>-0.690459570055826</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7697851276504876</v>
+        <v>-0.7621250002289628</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4376406974250017</v>
+        <v>-0.432729061230967</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6794485483727098</v>
+        <v>0.7663864434461055</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.06507423035398661</v>
+        <v>0.1174641836247093</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4123917017540657</v>
+        <v>0.5165127743459562</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05972023676854126</v>
+        <v>0.1434818261096233</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1262634299157388</v>
+        <v>0.09332910569824401</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.145037524238071</v>
+        <v>1.007487142929941</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06376874128145907</v>
+        <v>0.1054318138249944</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2187435720202983</v>
+        <v>-0.1979159010824706</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3734207950307208</v>
+        <v>0.3666666315949442</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.050862743356594</v>
+        <v>-3.80202439389186</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.894864788368134</v>
+        <v>-2.364532257456159</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.674057870787879</v>
+        <v>-3.971638961848914</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.213935660916346</v>
+        <v>2.915071270212272</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.436494987912926</v>
+        <v>-2.2572374726936</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.117881262734378</v>
+        <v>2.257480814398216</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.667959425630076</v>
+        <v>1.61187156152087</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.2266365044117596</v>
+        <v>-0.7173719451421651</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.23533393719883</v>
+        <v>1.22990114592831</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.915047714192839</v>
+        <v>10.23736977580962</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.90655421653481</v>
+        <v>10.11055727727451</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.034226664045338</v>
+        <v>9.06398289740155</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.65269885061336</v>
+        <v>14.77528645570706</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.31399457140855</v>
+        <v>7.763657777432356</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.29370774053084</v>
+        <v>12.77426936182408</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.67592767841223</v>
+        <v>10.68920367447645</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.174321708042912</v>
+        <v>7.580191502510123</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.937193638494794</v>
+        <v>10.03289460929667</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2493287821256039</v>
+        <v>-0.2428795911231966</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1044370387031288</v>
+        <v>-0.1384413935055978</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2590939589182242</v>
+        <v>-0.2447010245879953</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2539091648159882</v>
+        <v>0.2054021793911685</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1302669181649087</v>
+        <v>-0.1748843913240763</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2568987483733521</v>
+        <v>0.1620588507333115</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1031277495441202</v>
+        <v>0.1015838551367256</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01922530749065381</v>
+        <v>-0.05913651371339464</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.087675531898094</v>
+        <v>0.06944552664993454</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9200757637917143</v>
+        <v>0.9194482458060614</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.096112857890643</v>
+        <v>0.9428584643905878</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8182230746152171</v>
+        <v>0.8235253561677808</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.292725314367746</v>
+        <v>2.24768471258482</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.342094359050101</v>
+        <v>1.296830354399431</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.0813064380617</v>
+        <v>2.087182330864974</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.086761441608654</v>
+        <v>1.143490258349738</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9102280511966805</v>
+        <v>0.8324590309525587</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.082963085385049</v>
+        <v>1.095340090560105</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>5.804320800699039</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.7741011913666538</v>
+        <v>-0.7741011913666523</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.222429288810938</v>
+        <v>-3.951437368007456</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.3055830717514654</v>
+        <v>-0.3010404547537214</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.316214448767352</v>
+        <v>-3.26317640889833</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.093112028379819</v>
+        <v>-0.9982873029011873</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.416953987211328</v>
+        <v>1.268199881719234</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.416042185683374</v>
+        <v>-7.208371794895291</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.081907971826578</v>
+        <v>-1.243240543011796</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.030273945475006</v>
+        <v>2.738662403844878</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.014265867068092</v>
+        <v>-4.066652254788685</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.189715249326515</v>
+        <v>7.112201686146546</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>10.82159896500243</v>
+        <v>10.88511634771327</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7.97663366321997</v>
+        <v>7.985449854270659</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.333790641695055</v>
+        <v>8.485443435929016</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>11.13717393278978</v>
+        <v>11.04651076504485</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.1366285629833615</v>
+        <v>0.3584026508615459</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.123022990314745</v>
+        <v>5.618487535721876</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>9.307449828734521</v>
+        <v>9.631694674139428</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.692633295902582</v>
+        <v>2.387470587054153</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.6412267341704325</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.08551808142611619</v>
+        <v>-0.08551808142611604</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3262916654459149</v>
+        <v>-0.3072840102317715</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01450883912652459</v>
+        <v>-0.03244392603956107</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2439491377568292</v>
+        <v>-0.2705043547586892</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1352115029550977</v>
+        <v>-0.1250944994775577</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1285769639095946</v>
+        <v>0.08982229480261243</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7093994893222161</v>
+        <v>-0.6858993053247328</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1037204435988758</v>
+        <v>-0.120681609483592</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1746246369153489</v>
+        <v>0.2487191269246953</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3776058154589575</v>
+        <v>-0.38122364319164</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.9320943902577729</v>
+        <v>0.9256187118059533</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.37760077093502</v>
+        <v>1.382363979827761</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.032872191971133</v>
+        <v>1.00797590201465</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.478816608764842</v>
+        <v>1.569499341687109</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>2.00996558003505</v>
+        <v>2.010733855910474</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.04190919473669831</v>
+        <v>0.1225624840005219</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.8062840714092991</v>
+        <v>0.7445504471550566</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.26167659000743</v>
+        <v>1.28761110513346</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3668258899754325</v>
+        <v>0.3100408537117707</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>3.799029486683682</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>3.10071591849571</v>
+        <v>3.100715918495707</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.400739630199861</v>
+        <v>-1.036598902784986</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.9687056725208859</v>
+        <v>1.088292975751248</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.2198309687180416</v>
+        <v>-0.2448711353073303</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.694058523597776</v>
+        <v>1.604483674913488</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.406218629832959</v>
+        <v>1.624587818747542</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.165515601687285</v>
+        <v>1.219890833572135</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.067732494470189</v>
+        <v>0.874092158650413</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.930508688228859</v>
+        <v>1.985744982890754</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>1.379094303442914</v>
+        <v>1.12743181333291</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.286999572334635</v>
+        <v>4.541637952771295</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.425852793502419</v>
+        <v>6.783216255047336</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.437599337600925</v>
+        <v>5.744812201324862</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.72645152758094</v>
+        <v>6.788239991254643</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>6.115047707850193</v>
+        <v>6.407997810856648</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.789859120543746</v>
+        <v>5.829119000674901</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.83357715780578</v>
+        <v>4.764690096776265</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.660994450797285</v>
+        <v>5.794798899977387</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.982936905482014</v>
+        <v>4.800732832152165</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.3193812291113401</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.2606745919307769</v>
+        <v>0.2606745919307767</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.09505951200277757</v>
+        <v>-0.0687354381938164</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.06151121376373115</v>
+        <v>0.06932217308028382</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.01519904981949697</v>
+        <v>-0.01464516321175163</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1370776006009132</v>
+        <v>0.1469991145564151</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1196127294101944</v>
+        <v>0.1346600659761175</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1077470989356924</v>
+        <v>0.1031360152209869</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08399675208351649</v>
+        <v>0.06838747594245324</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1472153796687067</v>
+        <v>0.1480258899339805</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1060863682518462</v>
+        <v>0.08869442051392111</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3387057090009631</v>
+        <v>0.3673240210276303</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5264061849250011</v>
+        <v>0.5339148096892691</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4510038104943531</v>
+        <v>0.4752935683159482</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7121738565047037</v>
+        <v>0.7533185648694425</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.6774954246314857</v>
+        <v>0.6870248829354851</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.657555375122262</v>
+        <v>0.640015424398456</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.4400196419816858</v>
+        <v>0.4329904933327515</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.5126463591928457</v>
+        <v>0.5241798287309692</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4606408436617801</v>
+        <v>0.4402904298979106</v>
       </c>
     </row>
     <row r="58">
